--- a/Hrishikesh/Assignments_Hrishikesh.xlsx
+++ b/Hrishikesh/Assignments_Hrishikesh.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vaibhav\Desktop\Training\Corp\Assignments\HirshiKesh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Hrishikesh_JIEM\Quality Improvement\Online Training\Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799077C5-4FDB-4999-ACE5-3BFAE317E3D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213471D9-6EF2-4CBC-91BD-259D16CAC124}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19755" windowHeight="11760" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="08.04.2020" sheetId="4" r:id="rId4"/>
     <sheet name="09.04.2020" sheetId="7" r:id="rId5"/>
     <sheet name="10.04.2020" sheetId="8" r:id="rId6"/>
-    <sheet name="Calculator for binary" sheetId="6" r:id="rId7"/>
+    <sheet name="17.04.2020" sheetId="9" r:id="rId7"/>
+    <sheet name="Calculator for binary" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="188">
   <si>
     <t>Q1</t>
   </si>
@@ -807,6 +808,176 @@
   </si>
   <si>
     <t>11.04.2020</t>
+  </si>
+  <si>
+    <r>
+      <t>Method Overloading is a feature that allows a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>have more than one method</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> having the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>same name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, if their argument lists are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>different</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Creation of methods that need to take a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>variable number of arguments</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. This feature is called </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>varargs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and it is short-form for variable-length arguments. A method that takes a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>variable number of arguments is a varargs method</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>1 We can have only one varargs in the method.
+2.Only the last argument of a method can be varargs.</t>
+  </si>
+  <si>
+    <t>VarArgs</t>
+  </si>
+  <si>
+    <t>17.04.2020</t>
+  </si>
+  <si>
+    <t>19.04.2020</t>
   </si>
 </sst>
 </file>
@@ -946,7 +1117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1013,6 +1184,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1729,6 +1915,61 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9CFCBE8-6CC5-43C8-8634-AF9F8E6BA818}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="2095500"/>
+          <a:ext cx="6353175" cy="6115050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1994,7 +2235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7896B7-EDE0-4055-A903-606B7644A76C}">
   <dimension ref="D4:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2089,10 +2330,18 @@
       </c>
     </row>
     <row r="10" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="5"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="D10" s="5">
+        <v>6</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="11" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D11" s="5"/>
@@ -3677,7 +3926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27E1B99-B60A-4087-9632-953644E3374D}">
   <dimension ref="A2:S168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4076,12 +4325,169 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD373B2C-E6AF-4AAA-A025-291183A94DA4}">
+  <dimension ref="B4:R12"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="28"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="28"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+    </row>
+    <row r="7" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="28"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B4:Q5"/>
+    <mergeCell ref="B7:Q8"/>
+    <mergeCell ref="B10:L11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7654380-36E8-4797-A2D8-30443F512B1E}">
   <dimension ref="B2:U21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4406,23 +4812,23 @@
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="F15" s="9">
-        <v>234</v>
+        <v>56</v>
       </c>
       <c r="G15">
         <f>F15/8</f>
-        <v>29.25</v>
+        <v>7</v>
       </c>
       <c r="H15">
         <f>IF(G15&lt;1,K15,I15)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" s="9">
         <f>MOD(F15,8)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <f>ROUNDDOWN(G15,0)</f>
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="M15" s="9">
         <f>B5</f>
@@ -4448,23 +4854,23 @@
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="F16">
         <f>IF(G15&lt;1,"STOP",K15)</f>
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="G16">
         <f>F16/8</f>
-        <v>3.625</v>
+        <v>0.875</v>
       </c>
       <c r="H16">
         <f>IF(G16&lt;1,G16,I16)</f>
-        <v>5</v>
+        <v>0.875</v>
       </c>
       <c r="I16" s="9">
         <f>MOD(F16,8)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K16">
         <f t="shared" ref="K16:K20" si="10">ROUNDDOWN(G16,0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <f>IF(N15&lt;1,"STOP",R15)</f>
@@ -4488,25 +4894,25 @@
       </c>
     </row>
     <row r="17" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F17">
+      <c r="F17" t="str">
         <f>IF(G16&lt;1,"STOP",K16)</f>
-        <v>3</v>
-      </c>
-      <c r="G17">
+        <v>STOP</v>
+      </c>
+      <c r="G17" t="e">
         <f t="shared" ref="G17:G21" si="12">F17/2</f>
-        <v>1.5</v>
-      </c>
-      <c r="H17">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H17" t="e">
         <f>IF(G17&lt;1,G17,I17)</f>
-        <v>3</v>
-      </c>
-      <c r="I17" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I17" s="9" t="e">
         <f>MOD(F17,8)</f>
-        <v>3</v>
-      </c>
-      <c r="K17">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K17" t="e">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M17" t="str">
         <f>IF(N16&lt;1,"STOP",R16)</f>
@@ -4530,25 +4936,25 @@
       </c>
     </row>
     <row r="18" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F18">
+      <c r="F18" t="e">
         <f>IF(G17&lt;1,"STOP",K17)</f>
-        <v>1</v>
-      </c>
-      <c r="G18">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G18" t="e">
         <f t="shared" si="12"/>
-        <v>0.5</v>
-      </c>
-      <c r="H18">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H18" t="e">
         <f t="shared" ref="H18:H21" si="13">IF(G18&lt;1,G18,I18)</f>
-        <v>0.5</v>
-      </c>
-      <c r="I18" s="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I18" s="9" t="e">
         <f t="shared" ref="I18:I21" si="14">MOD(F18,2)</f>
-        <v>1</v>
-      </c>
-      <c r="K18">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K18" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M18" t="e">
         <f>IF(N17&lt;1,"STOP",R17)</f>
@@ -4572,9 +4978,9 @@
       </c>
     </row>
     <row r="19" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F19" t="str">
+      <c r="F19" t="e">
         <f>IF(G18&lt;1,"STOP",K18)</f>
-        <v>STOP</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G19" t="e">
         <f t="shared" si="12"/>
